--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sema6a-Plxna2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sema6a-Plxna2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,16 +88,16 @@
     <t>Neutrophils</t>
   </si>
   <si>
+    <t>Sema6a</t>
+  </si>
+  <si>
+    <t>Plxna2</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Sema6a</t>
-  </si>
-  <si>
-    <t>Plxna2</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>46.32737733333334</v>
+        <v>43.33746299999999</v>
       </c>
       <c r="H2">
-        <v>138.982132</v>
+        <v>130.012389</v>
       </c>
       <c r="I2">
-        <v>0.5696534342824506</v>
+        <v>0.8613212935977345</v>
       </c>
       <c r="J2">
-        <v>0.5696534342824506</v>
+        <v>0.8613212935977343</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>30.789758</v>
+        <v>39.62362533333334</v>
       </c>
       <c r="N2">
-        <v>92.369274</v>
+        <v>118.870876</v>
       </c>
       <c r="O2">
-        <v>0.5225738279799486</v>
+        <v>0.862331223864382</v>
       </c>
       <c r="P2">
-        <v>0.5225738279799483</v>
+        <v>0.8623312238643819</v>
       </c>
       <c r="Q2">
-        <v>1426.408736868019</v>
+        <v>1717.187396809196</v>
       </c>
       <c r="R2">
-        <v>12837.67863181217</v>
+        <v>15454.68657128276</v>
       </c>
       <c r="S2">
-        <v>0.2976859757749043</v>
+        <v>0.7427442452485871</v>
       </c>
       <c r="T2">
-        <v>0.2976859757749042</v>
+        <v>0.7427442452485868</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>46.32737733333334</v>
+        <v>43.33746299999999</v>
       </c>
       <c r="H3">
-        <v>138.982132</v>
+        <v>130.012389</v>
       </c>
       <c r="I3">
-        <v>0.5696534342824506</v>
+        <v>0.8613212935977345</v>
       </c>
       <c r="J3">
-        <v>0.5696534342824506</v>
+        <v>0.8613212935977343</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>6.742361000000001</v>
       </c>
       <c r="O3">
-        <v>0.03814451759567488</v>
+        <v>0.04891146266025228</v>
       </c>
       <c r="P3">
-        <v>0.03814451759567487</v>
+        <v>0.04891146266025227</v>
       </c>
       <c r="Q3">
-        <v>104.1186340548502</v>
+        <v>97.398940123381</v>
       </c>
       <c r="R3">
-        <v>937.0677064936522</v>
+        <v>876.590461110429</v>
       </c>
       <c r="S3">
-        <v>0.02172915544742356</v>
+        <v>0.04212848429028578</v>
       </c>
       <c r="T3">
-        <v>0.02172915544742355</v>
+        <v>0.04212848429028577</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>46.32737733333334</v>
+        <v>43.33746299999999</v>
       </c>
       <c r="H4">
-        <v>138.982132</v>
+        <v>130.012389</v>
       </c>
       <c r="I4">
-        <v>0.5696534342824506</v>
+        <v>0.8613212935977345</v>
       </c>
       <c r="J4">
-        <v>0.5696534342824506</v>
+        <v>0.8613212935977343</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8899283333333333</v>
+        <v>0.2964306666666667</v>
       </c>
       <c r="N4">
-        <v>2.669785</v>
+        <v>0.889292</v>
       </c>
       <c r="O4">
-        <v>0.01510415430279821</v>
+        <v>0.006451237548992269</v>
       </c>
       <c r="P4">
-        <v>0.01510415430279821</v>
+        <v>0.006451237548992268</v>
       </c>
       <c r="Q4">
-        <v>41.22804569795778</v>
+        <v>12.846553048732</v>
       </c>
       <c r="R4">
-        <v>371.05241128162</v>
+        <v>115.618977438588</v>
       </c>
       <c r="S4">
-        <v>0.008604133370521055</v>
+        <v>0.005556588271004298</v>
       </c>
       <c r="T4">
-        <v>0.008604133370521051</v>
+        <v>0.005556588271004297</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>46.32737733333334</v>
+        <v>43.33746299999999</v>
       </c>
       <c r="H5">
-        <v>138.982132</v>
+        <v>130.012389</v>
       </c>
       <c r="I5">
-        <v>0.5696534342824506</v>
+        <v>0.8613212935977345</v>
       </c>
       <c r="J5">
-        <v>0.5696534342824506</v>
+        <v>0.8613212935977343</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.079867</v>
+        <v>2.447182</v>
       </c>
       <c r="N5">
-        <v>69.23960099999999</v>
+        <v>7.341546</v>
       </c>
       <c r="O5">
-        <v>0.391719040060597</v>
+        <v>0.05325816179933475</v>
       </c>
       <c r="P5">
-        <v>0.3917190400605969</v>
+        <v>0.05325816179933474</v>
       </c>
       <c r="Q5">
-        <v>1069.229707312148</v>
+        <v>106.054659379266</v>
       </c>
       <c r="R5">
-        <v>9623.067365809331</v>
+        <v>954.4919344133939</v>
       </c>
       <c r="S5">
-        <v>0.223144096444344</v>
+        <v>0.04587238881564045</v>
       </c>
       <c r="T5">
-        <v>0.2231440964443439</v>
+        <v>0.04587238881564044</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>46.32737733333334</v>
+        <v>43.33746299999999</v>
       </c>
       <c r="H6">
-        <v>138.982132</v>
+        <v>130.012389</v>
       </c>
       <c r="I6">
-        <v>0.5696534342824506</v>
+        <v>0.8613212935977345</v>
       </c>
       <c r="J6">
-        <v>0.5696534342824506</v>
+        <v>0.8613212935977343</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.2964566666666666</v>
+        <v>0.4200656666666667</v>
       </c>
       <c r="N6">
-        <v>0.88937</v>
+        <v>1.260197</v>
       </c>
       <c r="O6">
-        <v>0.005031559362375489</v>
+        <v>0.009141913123616776</v>
       </c>
       <c r="P6">
-        <v>0.005031559362375487</v>
+        <v>0.009141913123616775</v>
       </c>
       <c r="Q6">
-        <v>13.73405985964889</v>
+        <v>18.204580286737</v>
       </c>
       <c r="R6">
-        <v>123.60653873684</v>
+        <v>163.841222580633</v>
       </c>
       <c r="S6">
-        <v>0.002866245070573215</v>
+        <v>0.007874124437591707</v>
       </c>
       <c r="T6">
-        <v>0.002866245070573214</v>
+        <v>0.007874124437591704</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>46.32737733333334</v>
+        <v>43.33746299999999</v>
       </c>
       <c r="H7">
-        <v>138.982132</v>
+        <v>130.012389</v>
       </c>
       <c r="I7">
-        <v>0.5696534342824506</v>
+        <v>0.8613212935977345</v>
       </c>
       <c r="J7">
-        <v>0.5696534342824506</v>
+        <v>0.8613212935977343</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.615977666666667</v>
+        <v>0.9146693333333333</v>
       </c>
       <c r="N7">
-        <v>4.847932999999999</v>
+        <v>2.744008</v>
       </c>
       <c r="O7">
-        <v>0.02742690069860585</v>
+        <v>0.01990600100342202</v>
       </c>
       <c r="P7">
-        <v>0.02742690069860584</v>
+        <v>0.01990600100342202</v>
       </c>
       <c r="Q7">
-        <v>74.86400712590623</v>
+        <v>39.63944839056799</v>
       </c>
       <c r="R7">
-        <v>673.776064133156</v>
+        <v>356.755035515112</v>
       </c>
       <c r="S7">
-        <v>0.01562382817468457</v>
+        <v>0.01714546253462526</v>
       </c>
       <c r="T7">
-        <v>0.01562382817468456</v>
+        <v>0.01714546253462525</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>7.190603</v>
       </c>
       <c r="I8">
-        <v>0.02947250581471647</v>
+        <v>0.04763714846981045</v>
       </c>
       <c r="J8">
-        <v>0.02947250581471647</v>
+        <v>0.04763714846981044</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>30.789758</v>
+        <v>39.62362533333334</v>
       </c>
       <c r="N8">
-        <v>92.369274</v>
+        <v>118.870876</v>
       </c>
       <c r="O8">
-        <v>0.5225738279799486</v>
+        <v>0.862331223864382</v>
       </c>
       <c r="P8">
-        <v>0.5225738279799483</v>
+        <v>0.8623312238643819</v>
       </c>
       <c r="Q8">
-        <v>73.79897541469134</v>
+        <v>94.9725863975809</v>
       </c>
       <c r="R8">
-        <v>664.190778732222</v>
+        <v>854.7532775782281</v>
       </c>
       <c r="S8">
-        <v>0.01540156018375768</v>
+        <v>0.04107900054138092</v>
       </c>
       <c r="T8">
-        <v>0.01540156018375767</v>
+        <v>0.04107900054138091</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>7.190603</v>
       </c>
       <c r="I9">
-        <v>0.02947250581471647</v>
+        <v>0.04763714846981045</v>
       </c>
       <c r="J9">
-        <v>0.02947250581471647</v>
+        <v>0.04763714846981044</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>6.742361000000001</v>
       </c>
       <c r="O9">
-        <v>0.03814451759567488</v>
+        <v>0.04891146266025228</v>
       </c>
       <c r="P9">
-        <v>0.03814451759567487</v>
+        <v>0.04891146266025227</v>
       </c>
       <c r="Q9">
         <v>5.386849025964779</v>
@@ -1013,10 +1013,10 @@
         <v>48.48164123368301</v>
       </c>
       <c r="S9">
-        <v>0.001124214516638083</v>
+        <v>0.002330002608622028</v>
       </c>
       <c r="T9">
-        <v>0.001124214516638082</v>
+        <v>0.002330002608622027</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>7.190603</v>
       </c>
       <c r="I10">
-        <v>0.02947250581471647</v>
+        <v>0.04763714846981045</v>
       </c>
       <c r="J10">
-        <v>0.02947250581471647</v>
+        <v>0.04763714846981044</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.8899283333333333</v>
+        <v>0.2964306666666667</v>
       </c>
       <c r="N10">
-        <v>2.669785</v>
+        <v>0.889292</v>
       </c>
       <c r="O10">
-        <v>0.01510415430279821</v>
+        <v>0.006451237548992269</v>
       </c>
       <c r="P10">
-        <v>0.01510415430279821</v>
+        <v>0.006451237548992268</v>
       </c>
       <c r="Q10">
-        <v>2.133040447817222</v>
+        <v>0.7105050803417778</v>
       </c>
       <c r="R10">
-        <v>19.197364030355</v>
+        <v>6.394545723076</v>
       </c>
       <c r="S10">
-        <v>0.000445157275515595</v>
+        <v>0.0003073185609353608</v>
       </c>
       <c r="T10">
-        <v>0.000445157275515595</v>
+        <v>0.0003073185609353607</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1107,10 +1107,10 @@
         <v>7.190603</v>
       </c>
       <c r="I11">
-        <v>0.02947250581471647</v>
+        <v>0.04763714846981045</v>
       </c>
       <c r="J11">
-        <v>0.02947250581471647</v>
+        <v>0.04763714846981044</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.079867</v>
+        <v>2.447182</v>
       </c>
       <c r="N11">
-        <v>69.23960099999999</v>
+        <v>7.341546</v>
       </c>
       <c r="O11">
-        <v>0.391719040060597</v>
+        <v>0.05325816179933475</v>
       </c>
       <c r="P11">
-        <v>0.3917190400605969</v>
+        <v>0.05325816179933474</v>
       </c>
       <c r="Q11">
-        <v>55.31938696326699</v>
+        <v>5.865571410248667</v>
       </c>
       <c r="R11">
-        <v>497.874482669403</v>
+        <v>52.790142692238</v>
       </c>
       <c r="S11">
-        <v>0.0115449416859211</v>
+        <v>0.002537066960864097</v>
       </c>
       <c r="T11">
-        <v>0.0115449416859211</v>
+        <v>0.002537066960864096</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,10 +1148,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>23</v>
@@ -1169,10 +1169,10 @@
         <v>7.190603</v>
       </c>
       <c r="I12">
-        <v>0.02947250581471647</v>
+        <v>0.04763714846981045</v>
       </c>
       <c r="J12">
-        <v>0.02947250581471647</v>
+        <v>0.04763714846981044</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.2964566666666666</v>
+        <v>0.4200656666666667</v>
       </c>
       <c r="N12">
-        <v>0.88937</v>
+        <v>1.260197</v>
       </c>
       <c r="O12">
-        <v>0.005031559362375489</v>
+        <v>0.009141913123616776</v>
       </c>
       <c r="P12">
-        <v>0.005031559362375487</v>
+        <v>0.009141913123616775</v>
       </c>
       <c r="Q12">
-        <v>0.7105673989011111</v>
+        <v>1.006841814310111</v>
       </c>
       <c r="R12">
-        <v>6.39510659011</v>
+        <v>9.061576328791</v>
       </c>
       <c r="S12">
-        <v>0.0001482926625647027</v>
+        <v>0.000435494672767841</v>
       </c>
       <c r="T12">
-        <v>0.0001482926625647027</v>
+        <v>0.0004354946727678409</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>7.190603</v>
       </c>
       <c r="I13">
-        <v>0.02947250581471647</v>
+        <v>0.04763714846981045</v>
       </c>
       <c r="J13">
-        <v>0.02947250581471647</v>
+        <v>0.04763714846981044</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.615977666666667</v>
+        <v>0.9146693333333333</v>
       </c>
       <c r="N13">
-        <v>4.847932999999999</v>
+        <v>2.744008</v>
       </c>
       <c r="O13">
-        <v>0.02742690069860585</v>
+        <v>0.01990600100342202</v>
       </c>
       <c r="P13">
-        <v>0.02742690069860584</v>
+        <v>0.01990600100342202</v>
       </c>
       <c r="Q13">
-        <v>3.873284619288778</v>
+        <v>2.192341350758222</v>
       </c>
       <c r="R13">
-        <v>34.859561573599</v>
+        <v>19.731072156824</v>
       </c>
       <c r="S13">
-        <v>0.0008083394903193123</v>
+        <v>0.0009482651252402107</v>
       </c>
       <c r="T13">
-        <v>0.0008083394903193121</v>
+        <v>0.0009482651252402105</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>32.44355833333334</v>
+        <v>4.448354</v>
       </c>
       <c r="H14">
-        <v>97.33067500000001</v>
+        <v>13.345062</v>
       </c>
       <c r="I14">
-        <v>0.3989343988101943</v>
+        <v>0.08840992887979293</v>
       </c>
       <c r="J14">
-        <v>0.3989343988101943</v>
+        <v>0.0884099288797929</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>30.789758</v>
+        <v>39.62362533333334</v>
       </c>
       <c r="N14">
-        <v>92.369274</v>
+        <v>118.870876</v>
       </c>
       <c r="O14">
-        <v>0.5225738279799486</v>
+        <v>0.862331223864382</v>
       </c>
       <c r="P14">
-        <v>0.5225738279799483</v>
+        <v>0.8623312238643819</v>
       </c>
       <c r="Q14">
-        <v>998.9293097422168</v>
+        <v>176.2599122460347</v>
       </c>
       <c r="R14">
-        <v>8990.363787679951</v>
+        <v>1586.339210214312</v>
       </c>
       <c r="S14">
-        <v>0.2084726758991227</v>
+        <v>0.07623864217267481</v>
       </c>
       <c r="T14">
-        <v>0.2084726758991226</v>
+        <v>0.07623864217267477</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>32.44355833333334</v>
+        <v>4.448354</v>
       </c>
       <c r="H15">
-        <v>97.33067500000001</v>
+        <v>13.345062</v>
       </c>
       <c r="I15">
-        <v>0.3989343988101943</v>
+        <v>0.08840992887979293</v>
       </c>
       <c r="J15">
-        <v>0.3989343988101943</v>
+        <v>0.0884099288797929</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>6.742361000000001</v>
       </c>
       <c r="O15">
-        <v>0.03814451759567488</v>
+        <v>0.04891146266025228</v>
       </c>
       <c r="P15">
-        <v>0.03814451759567487</v>
+        <v>0.04891146266025227</v>
       </c>
       <c r="Q15">
-        <v>72.91539413596391</v>
+        <v>9.997469507931335</v>
       </c>
       <c r="R15">
-        <v>656.2385472236751</v>
+        <v>89.97722557138201</v>
       </c>
       <c r="S15">
-        <v>0.01521716019493543</v>
+        <v>0.004324258935199552</v>
       </c>
       <c r="T15">
-        <v>0.01521716019493543</v>
+        <v>0.00432425893519955</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,14 +1396,14 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
       <c r="E16">
         <v>3</v>
       </c>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>32.44355833333334</v>
+        <v>4.448354</v>
       </c>
       <c r="H16">
-        <v>97.33067500000001</v>
+        <v>13.345062</v>
       </c>
       <c r="I16">
-        <v>0.3989343988101943</v>
+        <v>0.08840992887979293</v>
       </c>
       <c r="J16">
-        <v>0.3989343988101943</v>
+        <v>0.0884099288797929</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.8899283333333333</v>
+        <v>0.2964306666666667</v>
       </c>
       <c r="N16">
-        <v>2.669785</v>
+        <v>0.889292</v>
       </c>
       <c r="O16">
-        <v>0.01510415430279821</v>
+        <v>0.006451237548992269</v>
       </c>
       <c r="P16">
-        <v>0.01510415430279821</v>
+        <v>0.006451237548992268</v>
       </c>
       <c r="Q16">
-        <v>28.87244179498611</v>
+        <v>1.318628541789333</v>
       </c>
       <c r="R16">
-        <v>259.851976154875</v>
+        <v>11.867656876104</v>
       </c>
       <c r="S16">
-        <v>0.006025566716323213</v>
+        <v>0.0005703534528930562</v>
       </c>
       <c r="T16">
-        <v>0.006025566716323212</v>
+        <v>0.0005703534528930559</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>32.44355833333334</v>
+        <v>4.448354</v>
       </c>
       <c r="H17">
-        <v>97.33067500000001</v>
+        <v>13.345062</v>
       </c>
       <c r="I17">
-        <v>0.3989343988101943</v>
+        <v>0.08840992887979293</v>
       </c>
       <c r="J17">
-        <v>0.3989343988101943</v>
+        <v>0.0884099288797929</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>23.079867</v>
+        <v>2.447182</v>
       </c>
       <c r="N17">
-        <v>69.23960099999999</v>
+        <v>7.341546</v>
       </c>
       <c r="O17">
-        <v>0.391719040060597</v>
+        <v>0.05325816179933475</v>
       </c>
       <c r="P17">
-        <v>0.3917190400605969</v>
+        <v>0.05325816179933474</v>
       </c>
       <c r="Q17">
-        <v>748.7930113400749</v>
+        <v>10.885931838428</v>
       </c>
       <c r="R17">
-        <v>6739.137102060676</v>
+        <v>97.97338654585201</v>
       </c>
       <c r="S17">
-        <v>0.1562701997490807</v>
+        <v>0.00470855029694769</v>
       </c>
       <c r="T17">
-        <v>0.1562701997490807</v>
+        <v>0.004708550296947688</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,10 +1520,10 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>23</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>32.44355833333334</v>
+        <v>4.448354</v>
       </c>
       <c r="H18">
-        <v>97.33067500000001</v>
+        <v>13.345062</v>
       </c>
       <c r="I18">
-        <v>0.3989343988101943</v>
+        <v>0.08840992887979293</v>
       </c>
       <c r="J18">
-        <v>0.3989343988101943</v>
+        <v>0.0884099288797929</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.2964566666666666</v>
+        <v>0.4200656666666667</v>
       </c>
       <c r="N18">
-        <v>0.88937</v>
+        <v>1.260197</v>
       </c>
       <c r="O18">
-        <v>0.005031559362375489</v>
+        <v>0.009141913123616776</v>
       </c>
       <c r="P18">
-        <v>0.005031559362375487</v>
+        <v>0.009141913123616775</v>
       </c>
       <c r="Q18">
-        <v>9.618109158305556</v>
+        <v>1.868600788579333</v>
       </c>
       <c r="R18">
-        <v>86.56298242475002</v>
+        <v>16.817407097214</v>
       </c>
       <c r="S18">
-        <v>0.00200726210930707</v>
+        <v>0.0008082358890842048</v>
       </c>
       <c r="T18">
-        <v>0.00200726210930707</v>
+        <v>0.0008082358890842044</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>32.44355833333334</v>
+        <v>4.448354</v>
       </c>
       <c r="H19">
-        <v>97.33067500000001</v>
+        <v>13.345062</v>
       </c>
       <c r="I19">
-        <v>0.3989343988101943</v>
+        <v>0.08840992887979293</v>
       </c>
       <c r="J19">
-        <v>0.3989343988101943</v>
+        <v>0.0884099288797929</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.615977666666667</v>
+        <v>0.9146693333333333</v>
       </c>
       <c r="N19">
-        <v>4.847932999999999</v>
+        <v>2.744008</v>
       </c>
       <c r="O19">
-        <v>0.02742690069860585</v>
+        <v>0.01990600100342202</v>
       </c>
       <c r="P19">
-        <v>0.02742690069860584</v>
+        <v>0.01990600100342202</v>
       </c>
       <c r="Q19">
-        <v>52.42806569386389</v>
+        <v>4.068772987610667</v>
       </c>
       <c r="R19">
-        <v>471.852591244775</v>
+        <v>36.618956888496</v>
       </c>
       <c r="S19">
-        <v>0.01094153414142522</v>
+        <v>0.001759888132993628</v>
       </c>
       <c r="T19">
-        <v>0.01094153414142522</v>
+        <v>0.001759888132993627</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.107048</v>
+        <v>0.1324106666666666</v>
       </c>
       <c r="H20">
-        <v>0.321144</v>
+        <v>0.397232</v>
       </c>
       <c r="I20">
-        <v>0.001316289942215042</v>
+        <v>0.002631629052662168</v>
       </c>
       <c r="J20">
-        <v>0.001316289942215042</v>
+        <v>0.002631629052662168</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>30.789758</v>
+        <v>39.62362533333334</v>
       </c>
       <c r="N20">
-        <v>92.369274</v>
+        <v>118.870876</v>
       </c>
       <c r="O20">
-        <v>0.5225738279799486</v>
+        <v>0.862331223864382</v>
       </c>
       <c r="P20">
-        <v>0.5225738279799483</v>
+        <v>0.8623312238643819</v>
       </c>
       <c r="Q20">
-        <v>3.295982014384</v>
+        <v>5.246590646136888</v>
       </c>
       <c r="R20">
-        <v>29.663838129456</v>
+        <v>47.219315815232</v>
       </c>
       <c r="S20">
-        <v>0.0006878586738348196</v>
+        <v>0.002269335901739231</v>
       </c>
       <c r="T20">
-        <v>0.0006878586738348194</v>
+        <v>0.002269335901739231</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.107048</v>
+        <v>0.1324106666666666</v>
       </c>
       <c r="H21">
-        <v>0.321144</v>
+        <v>0.397232</v>
       </c>
       <c r="I21">
-        <v>0.001316289942215042</v>
+        <v>0.002631629052662168</v>
       </c>
       <c r="J21">
-        <v>0.001316289942215042</v>
+        <v>0.002631629052662168</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>6.742361000000001</v>
       </c>
       <c r="O21">
-        <v>0.03814451759567488</v>
+        <v>0.04891146266025228</v>
       </c>
       <c r="P21">
-        <v>0.03814451759567487</v>
+        <v>0.04891146266025227</v>
       </c>
       <c r="Q21">
-        <v>0.2405854201093333</v>
+        <v>0.2975868383057778</v>
       </c>
       <c r="R21">
-        <v>2.165268780984</v>
+        <v>2.678281544752</v>
       </c>
       <c r="S21">
-        <v>5.020924486183153E-05</v>
+        <v>0.0001287168261449207</v>
       </c>
       <c r="T21">
-        <v>5.020924486183152E-05</v>
+        <v>0.0001287168261449207</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
         <v>26</v>
       </c>
-      <c r="D22" t="s">
-        <v>27</v>
-      </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.107048</v>
+        <v>0.1324106666666666</v>
       </c>
       <c r="H22">
-        <v>0.321144</v>
+        <v>0.397232</v>
       </c>
       <c r="I22">
-        <v>0.001316289942215042</v>
+        <v>0.002631629052662168</v>
       </c>
       <c r="J22">
-        <v>0.001316289942215042</v>
+        <v>0.002631629052662168</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.8899283333333333</v>
+        <v>0.2964306666666667</v>
       </c>
       <c r="N22">
-        <v>2.669785</v>
+        <v>0.889292</v>
       </c>
       <c r="O22">
-        <v>0.01510415430279821</v>
+        <v>0.006451237548992269</v>
       </c>
       <c r="P22">
-        <v>0.01510415430279821</v>
+        <v>0.006451237548992268</v>
       </c>
       <c r="Q22">
-        <v>0.09526504822666666</v>
+        <v>0.03925058219377777</v>
       </c>
       <c r="R22">
-        <v>0.85738543404</v>
+        <v>0.353255239744</v>
       </c>
       <c r="S22">
-        <v>1.988144639443733E-05</v>
+        <v>1.697726415955313E-05</v>
       </c>
       <c r="T22">
-        <v>1.988144639443733E-05</v>
+        <v>1.697726415955313E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.107048</v>
+        <v>0.1324106666666666</v>
       </c>
       <c r="H23">
-        <v>0.321144</v>
+        <v>0.397232</v>
       </c>
       <c r="I23">
-        <v>0.001316289942215042</v>
+        <v>0.002631629052662168</v>
       </c>
       <c r="J23">
-        <v>0.001316289942215042</v>
+        <v>0.002631629052662168</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>23.079867</v>
+        <v>2.447182</v>
       </c>
       <c r="N23">
-        <v>69.23960099999999</v>
+        <v>7.341546</v>
       </c>
       <c r="O23">
-        <v>0.391719040060597</v>
+        <v>0.05325816179933475</v>
       </c>
       <c r="P23">
-        <v>0.3917190400605969</v>
+        <v>0.05325816179933474</v>
       </c>
       <c r="Q23">
-        <v>2.470653602615999</v>
+        <v>0.3240330000746666</v>
       </c>
       <c r="R23">
-        <v>22.235882423544</v>
+        <v>2.916297000672</v>
       </c>
       <c r="S23">
-        <v>0.0005156158326058949</v>
+        <v>0.0001401557258825118</v>
       </c>
       <c r="T23">
-        <v>0.0005156158326058948</v>
+        <v>0.0001401557258825117</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
         <v>23</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.107048</v>
+        <v>0.1324106666666666</v>
       </c>
       <c r="H24">
-        <v>0.321144</v>
+        <v>0.397232</v>
       </c>
       <c r="I24">
-        <v>0.001316289942215042</v>
+        <v>0.002631629052662168</v>
       </c>
       <c r="J24">
-        <v>0.001316289942215042</v>
+        <v>0.002631629052662168</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.2964566666666666</v>
+        <v>0.4200656666666667</v>
       </c>
       <c r="N24">
-        <v>0.88937</v>
+        <v>1.260197</v>
       </c>
       <c r="O24">
-        <v>0.005031559362375489</v>
+        <v>0.009141913123616776</v>
       </c>
       <c r="P24">
-        <v>0.005031559362375487</v>
+        <v>0.009141913123616775</v>
       </c>
       <c r="Q24">
-        <v>0.03173509325333333</v>
+        <v>0.0556211749671111</v>
       </c>
       <c r="R24">
-        <v>0.28561583928</v>
+        <v>0.5005905747039999</v>
       </c>
       <c r="S24">
-        <v>6.622990982352784E-06</v>
+        <v>2.405812417302346E-05</v>
       </c>
       <c r="T24">
-        <v>6.622990982352783E-06</v>
+        <v>2.405812417302345E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.107048</v>
+        <v>0.1324106666666666</v>
       </c>
       <c r="H25">
-        <v>0.321144</v>
+        <v>0.397232</v>
       </c>
       <c r="I25">
-        <v>0.001316289942215042</v>
+        <v>0.002631629052662168</v>
       </c>
       <c r="J25">
-        <v>0.001316289942215042</v>
+        <v>0.002631629052662168</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,400 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.615977666666667</v>
+        <v>0.9146693333333333</v>
       </c>
       <c r="N25">
-        <v>4.847932999999999</v>
+        <v>2.744008</v>
       </c>
       <c r="O25">
-        <v>0.02742690069860585</v>
+        <v>0.01990600100342202</v>
       </c>
       <c r="P25">
-        <v>0.02742690069860584</v>
+        <v>0.01990600100342202</v>
       </c>
       <c r="Q25">
-        <v>0.1729871772613333</v>
+        <v>0.1211119762062222</v>
       </c>
       <c r="R25">
-        <v>1.556884595352</v>
+        <v>1.090007785856</v>
       </c>
       <c r="S25">
-        <v>3.610175353570559E-05</v>
+        <v>5.238521056292766E-05</v>
       </c>
       <c r="T25">
-        <v>3.610175353570558E-05</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.050696</v>
-      </c>
-      <c r="H26">
-        <v>0.152088</v>
-      </c>
-      <c r="I26">
-        <v>0.00062337115042349</v>
-      </c>
-      <c r="J26">
-        <v>0.00062337115042349</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>30.789758</v>
-      </c>
-      <c r="N26">
-        <v>92.369274</v>
-      </c>
-      <c r="O26">
-        <v>0.5225738279799486</v>
-      </c>
-      <c r="P26">
-        <v>0.5225738279799483</v>
-      </c>
-      <c r="Q26">
-        <v>1.560917571568</v>
-      </c>
-      <c r="R26">
-        <v>14.048258144112</v>
-      </c>
-      <c r="S26">
-        <v>0.0003257574483290675</v>
-      </c>
-      <c r="T26">
-        <v>0.0003257574483290674</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G27">
-        <v>0.050696</v>
-      </c>
-      <c r="H27">
-        <v>0.152088</v>
-      </c>
-      <c r="I27">
-        <v>0.00062337115042349</v>
-      </c>
-      <c r="J27">
-        <v>0.00062337115042349</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>2.247453666666667</v>
-      </c>
-      <c r="N27">
-        <v>6.742361000000001</v>
-      </c>
-      <c r="O27">
-        <v>0.03814451759567488</v>
-      </c>
-      <c r="P27">
-        <v>0.03814451759567487</v>
-      </c>
-      <c r="Q27">
-        <v>0.1139369110853333</v>
-      </c>
-      <c r="R27">
-        <v>1.025432199768</v>
-      </c>
-      <c r="S27">
-        <v>2.377819181596491E-05</v>
-      </c>
-      <c r="T27">
-        <v>2.37781918159649E-05</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G28">
-        <v>0.050696</v>
-      </c>
-      <c r="H28">
-        <v>0.152088</v>
-      </c>
-      <c r="I28">
-        <v>0.00062337115042349</v>
-      </c>
-      <c r="J28">
-        <v>0.00062337115042349</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>0.8899283333333333</v>
-      </c>
-      <c r="N28">
-        <v>2.669785</v>
-      </c>
-      <c r="O28">
-        <v>0.01510415430279821</v>
-      </c>
-      <c r="P28">
-        <v>0.01510415430279821</v>
-      </c>
-      <c r="Q28">
-        <v>0.04511580678666666</v>
-      </c>
-      <c r="R28">
-        <v>0.40604226108</v>
-      </c>
-      <c r="S28">
-        <v>9.415494043909228E-06</v>
-      </c>
-      <c r="T28">
-        <v>9.415494043909224E-06</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G29">
-        <v>0.050696</v>
-      </c>
-      <c r="H29">
-        <v>0.152088</v>
-      </c>
-      <c r="I29">
-        <v>0.00062337115042349</v>
-      </c>
-      <c r="J29">
-        <v>0.00062337115042349</v>
-      </c>
-      <c r="K29">
-        <v>3</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>23.079867</v>
-      </c>
-      <c r="N29">
-        <v>69.23960099999999</v>
-      </c>
-      <c r="O29">
-        <v>0.391719040060597</v>
-      </c>
-      <c r="P29">
-        <v>0.3917190400605969</v>
-      </c>
-      <c r="Q29">
-        <v>1.170056937432</v>
-      </c>
-      <c r="R29">
-        <v>10.530512436888</v>
-      </c>
-      <c r="S29">
-        <v>0.0002441863486453596</v>
-      </c>
-      <c r="T29">
-        <v>0.0002441863486453595</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G30">
-        <v>0.050696</v>
-      </c>
-      <c r="H30">
-        <v>0.152088</v>
-      </c>
-      <c r="I30">
-        <v>0.00062337115042349</v>
-      </c>
-      <c r="J30">
-        <v>0.00062337115042349</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>0.2964566666666666</v>
-      </c>
-      <c r="N30">
-        <v>0.88937</v>
-      </c>
-      <c r="O30">
-        <v>0.005031559362375489</v>
-      </c>
-      <c r="P30">
-        <v>0.005031559362375487</v>
-      </c>
-      <c r="Q30">
-        <v>0.01502916717333333</v>
-      </c>
-      <c r="R30">
-        <v>0.13526250456</v>
-      </c>
-      <c r="S30">
-        <v>3.13652894814809E-06</v>
-      </c>
-      <c r="T30">
-        <v>3.136528948148089E-06</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G31">
-        <v>0.050696</v>
-      </c>
-      <c r="H31">
-        <v>0.152088</v>
-      </c>
-      <c r="I31">
-        <v>0.00062337115042349</v>
-      </c>
-      <c r="J31">
-        <v>0.00062337115042349</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>1.615977666666667</v>
-      </c>
-      <c r="N31">
-        <v>4.847932999999999</v>
-      </c>
-      <c r="O31">
-        <v>0.02742690069860585</v>
-      </c>
-      <c r="P31">
-        <v>0.02742690069860584</v>
-      </c>
-      <c r="Q31">
-        <v>0.08192360378933332</v>
-      </c>
-      <c r="R31">
-        <v>0.7373124341039999</v>
-      </c>
-      <c r="S31">
-        <v>1.709713864104076E-05</v>
-      </c>
-      <c r="T31">
-        <v>1.709713864104075E-05</v>
+        <v>5.238521056292764E-05</v>
       </c>
     </row>
   </sheetData>
